--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2628771.613004313</v>
+        <v>2781834.505655606</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4621726.662600171</v>
+        <v>4866489.516104887</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>177.1573798050075</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +673,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>336.7465100399715</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.439238478792435</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>30.97524081634074</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -902,19 +904,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>330.2651309081679</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>143.2708769613174</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6996470250406</v>
+        <v>73.27118424942225</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1111,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>386.6069073758648</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1190,13 +1192,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>269.939249204202</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>28.27041550990375</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>27.07950026194673</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>236.27605195679</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1528,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>90.30617524481315</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752453</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1610,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>252.1389108750375</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>20.56754178381372</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1816,7 +1818,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.6544692828921</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1853,13 +1855,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2002,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>122.9229677259526</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>7.264602967362117</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2242,13 +2244,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>216.2283535259488</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2476,13 +2478,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>90.32734763589799</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>254.093120106908</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.76594660771036</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>137.5995661138266</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2852,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.267152625425</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3247,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>50.29424103733289</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>27.33721772847624</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3563,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3667,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>94.431236732152</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022602</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>254.7618934652788</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.2853439284776</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>9.258626877497363</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>52.5117099198484</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>888.1040799405456</v>
+        <v>991.498727323736</v>
       </c>
       <c r="C2" t="n">
-        <v>459.5224056778139</v>
+        <v>957.3966585475634</v>
       </c>
       <c r="D2" t="n">
-        <v>427.6530248926625</v>
+        <v>778.4498102596771</v>
       </c>
       <c r="E2" t="n">
-        <v>397.9186840913617</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>374.0916585409735</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,25 +4333,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>1018.003613428182</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850494</v>
+        <v>1013.75789376824</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.7175721270257</v>
+        <v>496.2114551296786</v>
       </c>
       <c r="C4" t="n">
-        <v>432.2637958858213</v>
+        <v>323.6497436129035</v>
       </c>
       <c r="D4" t="n">
-        <v>432.2637958858213</v>
+        <v>292.3616215761957</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4492,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>679.1093267936133</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X4" t="n">
-        <v>433.7175721270257</v>
+        <v>496.2114551296786</v>
       </c>
       <c r="Y4" t="n">
-        <v>433.7175721270257</v>
+        <v>496.2114551296786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.471904237179</v>
+        <v>1267.176165140082</v>
       </c>
       <c r="C5" t="n">
-        <v>1141.369835461006</v>
+        <v>1233.074096363909</v>
       </c>
       <c r="D5" t="n">
-        <v>1109.500454675855</v>
+        <v>1201.204715578758</v>
       </c>
       <c r="E5" t="n">
-        <v>680.9187804131229</v>
+        <v>767.4299707370531</v>
       </c>
       <c r="F5" t="n">
-        <v>657.0917548627348</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>649.3169773395173</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>649.3169773395173</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1273.417761384296</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1897.518545429074</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2376.901271937168</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2117.678969254184</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>2117.678969254184</v>
       </c>
       <c r="W5" t="n">
-        <v>1217.07884972191</v>
+        <v>2116.863918705621</v>
       </c>
       <c r="X5" t="n">
-        <v>1201.976790341625</v>
+        <v>1697.721455284932</v>
       </c>
       <c r="Y5" t="n">
-        <v>1197.731070681682</v>
+        <v>1289.435331584586</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="N6" t="n">
-        <v>1277.130531135514</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="O6" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>746.820038248759</v>
+        <v>865.0621401077447</v>
       </c>
       <c r="C7" t="n">
-        <v>574.258326731984</v>
+        <v>865.0621401077447</v>
       </c>
       <c r="D7" t="n">
-        <v>428.0970671107308</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.160939331176</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="X7" t="n">
-        <v>746.820038248759</v>
+        <v>1284.300429512624</v>
       </c>
       <c r="Y7" t="n">
-        <v>746.820038248759</v>
+        <v>1056.880758826732</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>555.2911052642175</v>
+        <v>2064.697426772026</v>
       </c>
       <c r="C8" t="n">
-        <v>521.1890364880448</v>
+        <v>1626.554953955449</v>
       </c>
       <c r="D8" t="n">
-        <v>489.3196557028934</v>
+        <v>1594.685573170298</v>
       </c>
       <c r="E8" t="n">
-        <v>459.5853149015927</v>
+        <v>1160.910828328593</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>733.043398737801</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>855.2769502042993</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>854.4618996557366</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X8" t="n">
-        <v>581.7959913686639</v>
+        <v>2091.202312876472</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.5502717087213</v>
+        <v>2086.95659321653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>437.0247332457074</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>437.0247332457074</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>857.0776321906106</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1277.130531135514</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1697.183430080417</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1697.183430080417</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1697.183430080417</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400.6526303550848</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>228.0909188383097</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D10" t="n">
-        <v>228.0909188383097</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5349435757807</v>
+        <v>511.7125253339923</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>335.0054712957485</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>169.4141963215762</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>453.9965675465116</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>874.0494664914149</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1293.718715717196</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1641.225609687538</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>864.4976534877803</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>592.4712490740719</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>592.4712490740719</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>592.4712490740719</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1869.105492305721</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1630.442813561488</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.533028735933</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1320.714971542188</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M11" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3101.389534015723</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2696.534079426757</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2277.391616006068</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1869.105492305721</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="N12" t="n">
-        <v>426.7596113382908</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="O12" t="n">
-        <v>426.7596113382908</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="P12" t="n">
-        <v>1246.482777817489</v>
+        <v>1381.362214048096</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.2136293346052</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C13" t="n">
-        <v>591.6519178178302</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>425.7739250193529</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>256.0159212700901</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>256.0159212700901</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7975624369455</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745701</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.82558594935</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.87007781978</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.843673406072</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.451918739484</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0322480535924</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1631.024818394199</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1192.882345577622</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1192.882345577622</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>759.107600735917</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>331.2401711451247</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>910.4879051697988</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L14" t="n">
-        <v>1852.690868663607</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M14" t="n">
-        <v>1852.690868663607</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N14" t="n">
-        <v>1852.690868663607</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2794.893832157415</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3260.381874622449</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2057.324388879106</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>261.7424914848164</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>261.7424914848164</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>261.7424914848164</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>261.7424914848164</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N15" t="n">
-        <v>261.7424914848164</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O15" t="n">
-        <v>261.7424914848164</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1010.09307575615</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>837.531364239375</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>816.75606950825</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2512.138033117789</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U16" t="n">
-        <v>2233.705032370895</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V16" t="n">
-        <v>1946.749524241325</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.723119827617</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1429.331365161029</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1201.911694475137</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>809.0580335016147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>809.0580335016147</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M18" t="n">
-        <v>809.0580335016147</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N18" t="n">
-        <v>809.0580335016147</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O18" t="n">
-        <v>809.0580335016147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1628.781199980813</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5650,22 +5652,22 @@
         <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>666.1722425291648</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>666.1722425291648</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387799021</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>275.1900980402672</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>109.5988230660949</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,10 +5758,10 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5840,16 @@
         <v>426.819165236992</v>
       </c>
       <c r="M21" t="n">
-        <v>426.819165236992</v>
+        <v>1625.543999329491</v>
       </c>
       <c r="N21" t="n">
-        <v>426.819165236992</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>426.819165236992</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
         <v>1765.500601749588</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>838.7339540459399</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F22" t="n">
         <v>496.4142387799021</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1257.972243450819</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1030.552572764927</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2093.658967439508</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>447.7518095570423</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>282.16053458287</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6181,16 +6183,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1757.289095728803</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6303,28 +6305,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>426.819165236992</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>426.819165236992</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>426.819165236992</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>816.2774823142732</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>646.5194785650106</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>469.8124245267668</v>
       </c>
       <c r="G28" t="n">
         <v>330.8229638057298</v>
@@ -6424,10 +6426,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1454.96690046523</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1227.547229779338</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2178.821488698832</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135279</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705585</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6651,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.846346886775</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.454592220187</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6703,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6786,13 +6788,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
         <v>1765.500601749588</v>
@@ -6880,25 +6882,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y34" t="n">
         <v>1203.379615852385</v>
@@ -6914,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,16 +6943,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -6977,7 +6979,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,46 +7180,46 @@
         <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186841</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812565</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812565</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812565</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812565</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812565</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812565</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.86923544464</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7315,16 +7317,16 @@
         <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1631.024818394198</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1373.689572469674</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>76.13761321162085</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.742592622717</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.742592622717</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637918</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2881.322306888761</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2476.466852299794</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2057.324388879105</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2057.324388879105</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>130.2240328681073</v>
       </c>
       <c r="K42" t="n">
-        <v>426.7596113382908</v>
+        <v>810.9575529384846</v>
       </c>
       <c r="L42" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N42" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O42" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>900.9445496240053</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C43" t="n">
-        <v>728.3828381072302</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D43" t="n">
-        <v>562.5048453087529</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E43" t="n">
-        <v>392.7468415594901</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F43" t="n">
-        <v>216.0397875212463</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212463</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2648.868953407189</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2402.989506985644</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2124.55650623875</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.60099810918</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W43" t="n">
-        <v>1565.574593695472</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X43" t="n">
-        <v>1320.182839028884</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y43" t="n">
-        <v>1092.763168342992</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2100.962199843034</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1662.819727026457</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1226.909942200902</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>793.1351973591968</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L44" t="n">
-        <v>511.3923006645387</v>
+        <v>1134.430677610026</v>
       </c>
       <c r="M44" t="n">
-        <v>1453.595264158347</v>
+        <v>2291.478512820577</v>
       </c>
       <c r="N44" t="n">
-        <v>2395.798227652155</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O44" t="n">
-        <v>3338.001191145962</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P44" t="n">
-        <v>3637.726595827985</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764879</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3713.876638403771</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3351.259688337597</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2946.404233748631</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2527.261770327942</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2527.261770327942</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7596113382908</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1198.638436058354</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.638436058354</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.638436058354</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1198.638436058354</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1198.638436058354</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1739.37737469043</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1042.6466300815</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>870.0849185647249</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>704.2069257662477</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>534.4489220169849</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>357.7418679787411</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2266.258586696244</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1979.303078566675</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1707.276674152967</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1461.884919486379</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.465248800487</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8057,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>371.7091627680287</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8216,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>604.9339300505458</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,19 +8297,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>577.1153547606273</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,16 +8382,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>299.7839758982018</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,28 +8534,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>52.98895607821123</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>817.4976473511605</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8772,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.5169886652538</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>470.1899418838725</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>161.152732437109</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.7440643176119</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9486,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>141.3703054748453</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>500.2430848324429</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>168.8387779969848</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,7 +10129,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10349,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10434,16 +10436,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10589,19 +10591,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>750.2469944428858</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>638.2669124058198</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>807.5312715220471</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>926.439739811392</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11136,13 +11138,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>1.918706501888948</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>602.9445958447762</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452607</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>302.7529340222454</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>197.4849961316209</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>73.62918697961746</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>216.2362286423971</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>145.2449421879313</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>47.91312667565475</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>26.70948359397283</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>48.17580493063123</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>29.9928329413658</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.1344859240869</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>26.33579611060398</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.87832135360776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>219.0118993322385</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.8082562505566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>73.62918697961811</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>178.9991546231321</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>135.3636110865057</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>247.3714527786559</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>414374.7831085087</v>
+        <v>418602.2239162671</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>414374.7831085087</v>
+        <v>419363.3839315756</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>341220.8292477648</v>
+        <v>422020.9344624344</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>341220.8292477648</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>422020.9344624342</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>422020.9344624343</v>
+        <v>422020.9344624342</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341220.8292477647</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341220.8292477647</v>
+        <v>422020.9344624342</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="C2" t="n">
         <v>536147.3198904084</v>
@@ -26320,40 +26322,40 @@
         <v>536147.3198904083</v>
       </c>
       <c r="E2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="F2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="G2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
-        <v>526857.5841373522</v>
+        <v>526857.5841373524</v>
       </c>
       <c r="I2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="J2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.584137352</v>
       </c>
       <c r="K2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="L2" t="n">
+        <v>526857.5841373522</v>
+      </c>
+      <c r="M2" t="n">
+        <v>526857.5841373523</v>
+      </c>
+      <c r="N2" t="n">
         <v>526857.5841373521</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>526857.5841373522</v>
       </c>
-      <c r="N2" t="n">
-        <v>526857.5841373522</v>
-      </c>
-      <c r="O2" t="n">
-        <v>425985.4596640249</v>
-      </c>
       <c r="P2" t="n">
-        <v>425985.4596640249</v>
+        <v>526857.5841373523</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501598</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877236</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622465</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955549</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>22383.68653473859</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>22383.68653473859</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26442,22 +26444,22 @@
         <v>27684.07875020268</v>
       </c>
       <c r="K4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
+        <v>27684.07875020264</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27684.07875020264</v>
+      </c>
+      <c r="O4" t="n">
         <v>27684.07875020268</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>27684.07875020268</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22383.68653473858</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22383.68653473858</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153098.8446330139</v>
+        <v>153098.8446330141</v>
       </c>
       <c r="C6" t="n">
-        <v>295290.145292724</v>
+        <v>259114.040391835</v>
       </c>
       <c r="D6" t="n">
-        <v>295290.1452927238</v>
+        <v>319649.8995466478</v>
       </c>
       <c r="E6" t="n">
-        <v>188259.8921663504</v>
+        <v>239100.1575603073</v>
       </c>
       <c r="F6" t="n">
-        <v>345737.1870884545</v>
+        <v>421455.2667813571</v>
       </c>
       <c r="G6" t="n">
-        <v>331955.458174988</v>
+        <v>421455.2667813571</v>
       </c>
       <c r="H6" t="n">
-        <v>421455.266781357</v>
+        <v>421455.2667813573</v>
       </c>
       <c r="I6" t="n">
         <v>421455.266781357</v>
       </c>
       <c r="J6" t="n">
-        <v>310440.8014363669</v>
+        <v>310440.8014363666</v>
       </c>
       <c r="K6" t="n">
+        <v>368409.4121425846</v>
+      </c>
+      <c r="L6" t="n">
+        <v>412062.9650547346</v>
+      </c>
+      <c r="M6" t="n">
+        <v>269255.0958433695</v>
+      </c>
+      <c r="N6" t="n">
+        <v>421455.2667813569</v>
+      </c>
+      <c r="O6" t="n">
+        <v>421455.266781357</v>
+      </c>
+      <c r="P6" t="n">
         <v>421455.2667813571</v>
-      </c>
-      <c r="L6" t="n">
-        <v>421455.2667813569</v>
-      </c>
-      <c r="M6" t="n">
-        <v>290019.0196239376</v>
-      </c>
-      <c r="N6" t="n">
-        <v>421455.266781357</v>
-      </c>
-      <c r="O6" t="n">
-        <v>345737.1870884545</v>
-      </c>
-      <c r="P6" t="n">
-        <v>345737.1870884545</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939399</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>254.3933071722924</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>60.63734302299724</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3968559228149</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>133.2439720541518</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>67.11872215480088</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>74.59567789437438</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>19.51956584545195</v>
+        <v>90.94802862107028</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10.77694568710393</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>145.0117895822804</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>139.7900082018664</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-8.467341030740874e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -34699,13 +34701,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>371.7091627680287</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>604.9339300505458</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35017,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>577.1153547606273</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,16 +35102,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>299.7839758982018</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,28 +35254,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>52.98895607821123</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>817.4976473511605</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889939</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638365</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.5169886652538</v>
+        <v>388.0185734358511</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080456</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1859873202736</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>470.1899418838725</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>161.152732437109</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.7440643176119</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,13 +36126,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>141.3703054748453</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>500.2430848324429</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36607,16 +36609,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>168.8387779969848</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,7 +36849,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37069,22 +37071,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,19 +37311,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>750.2469944428858</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>638.2669124058198</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>807.5312715220471</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>926.439739811392</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>1.918706501888948</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>602.9445958447762</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452607</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>302.7529340222454</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2781834.505655606</v>
+        <v>2781309.323286574</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>177.1573798050075</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>386.3970901465606</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>8.524144666484805</v>
       </c>
       <c r="D4" t="n">
-        <v>30.97524081634074</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>236.6728811599651</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>143.2708769613174</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1056,16 +1056,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>73.27118424942225</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>66.12297015960745</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>386.6069073758648</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>27.07950026194673</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,13 +1341,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>26.70160847752453</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>161.9991594537279</v>
       </c>
     </row>
     <row r="14">
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>125.6544692828921</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>7.264602967362117</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022616</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>216.2283535259488</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2478,13 +2478,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>50.38971918733537</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>90.32734763589799</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>82.4364859564396</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>137.5995661138266</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>50.29424103733289</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3268,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3325,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752453</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752537</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>94.431236732152</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633426</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0564930766996</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800322</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>93.15725658380831</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.498727323736</v>
+        <v>557.5168885550254</v>
       </c>
       <c r="C2" t="n">
-        <v>957.3966585475634</v>
+        <v>523.4148197788528</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4498102596771</v>
+        <v>491.5454389937014</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>1294.102365436318</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1697.183430080417</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1697.183430080417</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1697.183430080417</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
         <v>1697.183430080417</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1003.164238080161</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>584.0217746594717</v>
       </c>
       <c r="Y2" t="n">
-        <v>1013.75789376824</v>
+        <v>579.7760549995292</v>
       </c>
     </row>
     <row r="3">
@@ -4409,13 +4409,13 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>480.0602407069692</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>900.1131396518725</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
         <v>1159.957753041174</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>496.2114551296786</v>
+        <v>513.925357821747</v>
       </c>
       <c r="C4" t="n">
-        <v>323.6497436129035</v>
+        <v>505.3151106838835</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3616215761957</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>395.2818083374338</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>741.6032097962661</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>496.2114551296786</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="Y4" t="n">
-        <v>496.2114551296786</v>
+        <v>705.7439765407341</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.176165140082</v>
+        <v>779.3838434627786</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.074096363909</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.204715578758</v>
+        <v>508.4509463544301</v>
       </c>
       <c r="E5" t="n">
-        <v>767.4299707370531</v>
+        <v>478.7166055531293</v>
       </c>
       <c r="F5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947704</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947704</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>649.3169773395173</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>649.3169773395173</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>1273.417761384296</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>1897.518545429074</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>2521.619329473852</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473852</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
         <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2376.901271937168</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2117.678969254184</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="V5" t="n">
-        <v>2117.678969254184</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.863918705621</v>
+        <v>2033.112001068723</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.721455284932</v>
+        <v>1613.969537648033</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.435331584586</v>
+        <v>1205.683413947686</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
         <v>76.49605974993464</v>
@@ -4652,19 +4652,19 @@
         <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1596.499369973946</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>1596.499369973946</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="N6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>865.0621401077447</v>
+        <v>952.7834931631146</v>
       </c>
       <c r="C7" t="n">
-        <v>865.0621401077447</v>
+        <v>780.2217816463395</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>614.3437888478622</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="F7" t="n">
         <v>444.5857850985995</v>
@@ -4722,7 +4722,7 @@
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
         <v>137.0120717541669</v>
@@ -4737,7 +4737,7 @@
         <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
         <v>2005.919660639178</v>
@@ -4749,28 +4749,28 @@
         <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2454.828450524754</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>2176.395449777859</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>1889.43994164829</v>
       </c>
       <c r="W7" t="n">
-        <v>1529.692184179211</v>
+        <v>1617.413537234581</v>
       </c>
       <c r="X7" t="n">
-        <v>1284.300429512624</v>
+        <v>1372.021782567994</v>
       </c>
       <c r="Y7" t="n">
-        <v>1056.880758826732</v>
+        <v>1144.602111882102</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2064.697426772026</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.554953955449</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>1594.685573170298</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>1160.910828328593</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>733.043398737801</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4840,16 +4840,16 @@
         <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.11942280532</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.304372256757</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2091.202312876472</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>2086.95659321653</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1019.910233398507</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>847.3485218817324</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>681.4705290832551</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>511.7125253339923</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>335.0054712957485</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>169.4141963215762</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469974</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1439.148522803386</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1211.728852117495</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,10 +5047,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1381.362214048096</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1381.362214048096</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1381.362214048096</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1381.362214048096</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1008.757289365886</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
         <v>190.9207894961043</v>
@@ -5205,46 +5205,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745701</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008512</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.966900465234</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1427.995578770765</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1200.575908084873</v>
+        <v>1067.357452493545</v>
       </c>
     </row>
     <row r="14">
@@ -5281,13 +5281,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1612.575493976557</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5305,22 +5305,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2411.337553830592</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2132.904553083697</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>451.897152078511</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>275.1900980402672</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>109.5988230660949</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5810,16 +5810,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1625.543999329491</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>838.7339540459399</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>666.1722425291648</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>666.1722425291648</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1257.972243450819</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1030.552572764927</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>790.3368563937634</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>624.4588635952861</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>624.4588635952861</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>447.7518095570423</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>282.16053458287</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1554751127505</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C28" t="n">
-        <v>982.1554751127505</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D28" t="n">
-        <v>816.2774823142732</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>646.5194785650106</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>469.8124245267668</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
         <v>330.8229638057298</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6542,25 +6542,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6706,10 +6706,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1676.191041204865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.799286538277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,25 +6943,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6979,10 +6979,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C37" t="n">
         <v>1008.757289365886</v>
@@ -7086,7 +7086,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7098,49 +7098,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7177,34 +7177,34 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
@@ -7213,13 +7213,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>356.5120644702766</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7414,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>130.2240328681073</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>810.9575529384846</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.187678435286</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>917.6259669185112</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>751.7479741200339</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>581.9899703707711</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>405.2829163325273</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>239.691641358355</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7602,19 +7602,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2026.844126920461</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1754.817722506753</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1509.425967840165</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.006297154273</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7645,55 +7645,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1134.430677610026</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2291.478512820577</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="N44" t="n">
-        <v>3417.209496257024</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="O44" t="n">
-        <v>4397.38916282733</v>
+        <v>3738.233352746991</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580388</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7730,25 +7730,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>970.9960463903949</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C46" t="n">
-        <v>798.4343348736198</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D46" t="n">
-        <v>632.5563420751425</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E46" t="n">
-        <v>462.7983383258798</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F46" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.65249487557</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461861</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.234335795274</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.814665109382</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538402</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>370.2350542247758</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>604.9339300505458</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1153547606273</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8385,10 +8385,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982018</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>276.9662446538962</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>388.0185734358511</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1859873202736</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426497</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>141.3703054748453</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>750.2469944428858</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>807.5312715220471</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11138,13 +11138,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>1.918706501888948</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>602.9445958447762</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>314.270606305</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>216.2362286423971</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>63.14631452530489</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.2385495991671</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>26.70948359397283</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>48.17580493063123</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>81.78272691405293</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>26.33579611060398</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>219.0118993322385</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>216.2362286423971</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>73.62918697961811</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.446659489829642</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>422020.9344624344</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>422020.9344624343</v>
+        <v>422020.9344624342</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>422020.9344624342</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>422020.9344624343</v>
+        <v>422020.9344624342</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>422020.9344624343</v>
+        <v>422020.9344624344</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>422020.9344624343</v>
+        <v>422020.9344624342</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>422020.9344624342</v>
+        <v>422020.9344624343</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>536147.3198904084</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373524</v>
       </c>
       <c r="F2" t="n">
         <v>526857.5841373523</v>
@@ -26331,13 +26331,13 @@
         <v>526857.5841373522</v>
       </c>
       <c r="H2" t="n">
-        <v>526857.5841373524</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="I2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="J2" t="n">
-        <v>526857.584137352</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="K2" t="n">
         <v>526857.5841373522</v>
@@ -26349,13 +26349,13 @@
         <v>526857.5841373523</v>
       </c>
       <c r="N2" t="n">
-        <v>526857.5841373521</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="O2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
-        <v>526857.5841373523</v>
+        <v>526857.5841373522</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501598</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998293</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877236</v>
+        <v>53045.85463877238</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622465</v>
+        <v>9392.301726622443</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>138489.2977955549</v>
+        <v>138489.2977955548</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
@@ -26432,10 +26432,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26450,16 +26450,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020264</v>
+        <v>27684.07875020273</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020264</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.0787502027</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.0787502026</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26487,7 +26487,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153098.8446330141</v>
+        <v>153098.844633014</v>
       </c>
       <c r="C6" t="n">
-        <v>259114.040391835</v>
+        <v>259114.0403918351</v>
       </c>
       <c r="D6" t="n">
-        <v>319649.8995466478</v>
+        <v>319649.8995466479</v>
       </c>
       <c r="E6" t="n">
-        <v>239100.1575603073</v>
+        <v>239076.9332209248</v>
       </c>
       <c r="F6" t="n">
-        <v>421455.2667813571</v>
+        <v>421432.0424419745</v>
       </c>
       <c r="G6" t="n">
-        <v>421455.2667813571</v>
+        <v>421432.0424419743</v>
       </c>
       <c r="H6" t="n">
-        <v>421455.2667813573</v>
+        <v>421432.0424419745</v>
       </c>
       <c r="I6" t="n">
-        <v>421455.266781357</v>
+        <v>421432.0424419742</v>
       </c>
       <c r="J6" t="n">
-        <v>310440.8014363666</v>
+        <v>310417.5770969841</v>
       </c>
       <c r="K6" t="n">
-        <v>368409.4121425846</v>
+        <v>368386.187803202</v>
       </c>
       <c r="L6" t="n">
-        <v>412062.9650547346</v>
+        <v>412039.7407153519</v>
       </c>
       <c r="M6" t="n">
-        <v>269255.0958433695</v>
+        <v>269231.8715039868</v>
       </c>
       <c r="N6" t="n">
-        <v>421455.2667813569</v>
+        <v>421432.0424419743</v>
       </c>
       <c r="O6" t="n">
-        <v>421455.266781357</v>
+        <v>421432.0424419743</v>
       </c>
       <c r="P6" t="n">
-        <v>421455.2667813571</v>
+        <v>421432.0424419744</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26831,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939399</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>254.3933071722924</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>14.40980989651644</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162.3119497351225</v>
       </c>
       <c r="D4" t="n">
-        <v>133.2439720541518</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>197.0881669284458</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>74.59567789437438</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>90.94802862107028</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>177.2976817977219</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>10.77694568710393</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.820566934132988e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.861621967691462e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538402</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>370.2350542247758</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L5" t="n">
-        <v>604.9339300505458</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35020,13 +35020,13 @@
         <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1153547606273</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35105,10 +35105,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982018</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>276.9662446538962</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>388.0185734358511</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080456</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35649,16 +35649,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1859873202736</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426497</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>141.3703054748453</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37074,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>750.2469944428858</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961003</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37545,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>807.5312715220471</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>1.918706501888948</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>602.9445958447762</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>314.270606305</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
